--- a/public/exelFormat.xlsx
+++ b/public/exelFormat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamar\Desktop\שנה ג\פרויקט גמר\InternView_Git\InternViewClient\internviewFront\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamar\Desktop\שנה ג\פרויקט גמר\InternView_Git\InternViewClient\internviewFront\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FE93DF-1A11-469C-AE01-7C2370371B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB37C04-8609-4AC2-BFA0-02724E8068BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{38831C13-AA38-4D29-A201-65D295385886}"/>
   </bookViews>
@@ -44,27 +44,6 @@
     <t>גיל מטופל</t>
   </si>
   <si>
-    <t>רמת מורכבות הניתוח</t>
-  </si>
-  <si>
-    <t>בית חולים בו מבוצע הניתוח</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">תאריך ושעת הניתוח 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(פורמט 01-01-1999 09:30)</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">קודי הפרוצדורות בניתוח 
 </t>
@@ -79,12 +58,76 @@
       <t>(יש להפריד בין אחד לשני בעזרת פסיק ',')</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">שעת הניתוח 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(פורמט  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>18:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">רמת מורכבות הניתוח
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(מספר בין 1 ל 5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">תאריך הניתוח
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(בפורמטים 01-01-2024 או 01.01.2024 או 01/01/2024)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +151,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -147,19 +197,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,95 +545,95 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.8125" customWidth="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="20.0625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="20.0625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.3125" customWidth="1"/>
     <col min="7" max="7" width="60.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/exelFormat.xlsx
+++ b/public/exelFormat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamar\Desktop\שנה ג\פרויקט גמר\InternView_Git\InternViewClient\internviewFront\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB37C04-8609-4AC2-BFA0-02724E8068BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0F56EF-CB8D-432C-895D-EED132068B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{38831C13-AA38-4D29-A201-65D295385886}"/>
   </bookViews>
@@ -94,21 +94,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">רמת מורכבות הניתוח
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(מספר בין 1 ל 5)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">תאריך הניתוח
 </t>
     </r>
@@ -120,6 +105,21 @@
         <family val="2"/>
       </rPr>
       <t>(בפורמטים 01-01-2024 או 01.01.2024 או 01/01/2024)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">רמת מורכבות הניתוח
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(מספר בין 1 ל 3)</t>
     </r>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -567,13 +567,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
